--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Warehouse\Thu2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF985CB-F3F0-4ED9-AD39-E90A1B99EF6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E387A-9584-4A3B-B411-479DD4A6AED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -64,13 +64,22 @@
   </si>
   <si>
     <t>Thành Đạt</t>
+  </si>
+  <si>
+    <t>18/10/2023</t>
+  </si>
+  <si>
+    <t>Thiết kế UI Figma</t>
+  </si>
+  <si>
+    <t>Tìm kiếm các thiết kế figma tổng hợp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,8 +95,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -143,11 +166,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -170,6 +230,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -465,7 +540,7 @@
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" style="11" customWidth="1"/>
     <col min="6" max="6" width="22.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="17" customWidth="1"/>
     <col min="8" max="8" width="21.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,7 +563,7 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -510,7 +585,7 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -527,9 +602,30 @@
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="12"/>
     </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44E387A-9584-4A3B-B411-479DD4A6AED7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7DA32C-2F99-49DB-B99B-F1802ACB7E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Tìm kiếm các thiết kế figma tổng hợp</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>Chọn UI Figma</t>
   </si>
 </sst>
 </file>
@@ -228,6 +234,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,12 +251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -540,7 +546,7 @@
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" style="11" customWidth="1"/>
     <col min="6" max="6" width="22.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="13" customWidth="1"/>
     <col min="8" max="8" width="21.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,7 +569,7 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -579,13 +585,13 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -597,19 +603,19 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="12"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -617,15 +623,33 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="14"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="15"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7DA32C-2F99-49DB-B99B-F1802ACB7E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A796AC9-5F9B-4C9A-955E-91BA1C233BC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Chọn UI Figma</t>
+  </si>
+  <si>
+    <t>Mockup Data</t>
+  </si>
+  <si>
+    <t>Chọn vài ví dụ để mockup dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,23 +540,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="21.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,14 +582,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>20130217</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4">
+        <v>20130260</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="14" t="s">
         <v>10</v>
@@ -598,17 +606,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="9"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
@@ -622,13 +630,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
@@ -639,10 +647,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="17"/>
     </row>
   </sheetData>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A796AC9-5F9B-4C9A-955E-91BA1C233BC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB98C891-F2F4-4EB3-A3F4-9DBC5C3DFF6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Chọn vài ví dụ để mockup dữ liệu</t>
+  </si>
+  <si>
+    <t>20/10/2023</t>
+  </si>
+  <si>
+    <t>21/10/2023</t>
+  </si>
+  <si>
+    <t>22/10/2023</t>
+  </si>
+  <si>
+    <t>hoàn thành thiết kế</t>
   </si>
 </sst>
 </file>
@@ -260,7 +272,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,25 +550,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -606,17 +618,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="9"/>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
@@ -630,13 +642,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
@@ -647,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="16"/>
       <c r="F9" s="5" t="s">
         <v>18</v>
@@ -659,14 +671,59 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="17"/>
     </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB98C891-F2F4-4EB3-A3F4-9DBC5C3DFF6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CC1D5-891B-4259-A4AE-E3D63CFA3C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>hoàn thành thiết kế</t>
+  </si>
+  <si>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>Vẽ kiến trúc hệ thống</t>
+  </si>
+  <si>
+    <t>Vẽ activity kiến trúc hệ thống</t>
   </si>
 </sst>
 </file>
@@ -258,9 +267,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -268,6 +274,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -605,7 +614,7 @@
         <v>20130260</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -623,13 +632,13 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="14"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -643,13 +652,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="16"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -660,7 +669,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
@@ -672,10 +681,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -689,35 +698,56 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="17"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="17"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="E20:E22"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CC1D5-891B-4259-A4AE-E3D63CFA3C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB1DD0C-A3A3-4837-9782-F55FFE7CCB18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Vẽ activity kiến trúc hệ thống</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>Vẽ kiến Transform load to Fact-dim</t>
   </si>
 </sst>
 </file>
@@ -559,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -723,30 +729,58 @@
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E17" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="16"/>
     </row>
+    <row r="23" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="E2:E4"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB1DD0C-A3A3-4837-9782-F55FFE7CCB18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6A8C2-030D-48A1-B94F-5E1D4734FEF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Vẽ kiến Transform load to Fact-dim</t>
+  </si>
+  <si>
+    <t>vẽ crawler</t>
+  </si>
+  <si>
+    <t>vẽ sơ đồ workflow crawler</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,23 +573,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -633,17 +639,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="9"/>
       <c r="E3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
@@ -657,13 +663,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="14" t="s">
         <v>16</v>
       </c>
@@ -674,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="15"/>
       <c r="F9" s="5" t="s">
         <v>18</v>
@@ -686,10 +692,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="14" t="s">
         <v>20</v>
       </c>
@@ -703,13 +709,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="14" t="s">
         <v>21</v>
       </c>
@@ -723,13 +729,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="14" t="s">
         <v>22</v>
       </c>
@@ -740,41 +746,50 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="16"/>
     </row>
   </sheetData>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB1DD0C-A3A3-4837-9782-F55FFE7CCB18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEBEB5E-11DA-4AA8-9FFB-C5A6CF245946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -39,9 +39,6 @@
     <t>MSSV</t>
   </si>
   <si>
-    <t>Nội dung</t>
-  </si>
-  <si>
     <t>Người thực hiện</t>
   </si>
   <si>
@@ -112,6 +109,27 @@
   </si>
   <si>
     <t>Vẽ kiến Transform load to Fact-dim</t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến bắt đầu</t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến kết thúc</t>
+  </si>
+  <si>
+    <t>Thực tế bắt đầu</t>
+  </si>
+  <si>
+    <t>Thực tế kết thúc</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -128,7 +146,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,7 +154,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,12 +182,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -242,48 +260,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -577,205 +633,226 @@
     <col min="2" max="2" width="33.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" style="2" customWidth="1"/>
+    <col min="10" max="14" width="20.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
+        <v>20130217</v>
+      </c>
+      <c r="C2" s="11">
+        <v>20130260</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20130217</v>
-      </c>
-      <c r="C2" s="4">
-        <v>20130260</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="17" t="s">
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="7"/>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="15"/>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="14" t="s">
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5" t="s">
+    <row r="21" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="24" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="15"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="16"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="14"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="15"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="16"/>
+      <c r="E28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEBEB5E-11DA-4AA8-9FFB-C5A6CF245946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6A8C2-030D-48A1-B94F-5E1D4734FEF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -39,6 +39,9 @@
     <t>MSSV</t>
   </si>
   <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
     <t>Người thực hiện</t>
   </si>
   <si>
@@ -111,25 +114,10 @@
     <t>Vẽ kiến Transform load to Fact-dim</t>
   </si>
   <si>
-    <t>Công việc</t>
-  </si>
-  <si>
-    <t>Thời gian dự kiến bắt đầu</t>
-  </si>
-  <si>
-    <t>Thời gian dự kiến kết thúc</t>
-  </si>
-  <si>
-    <t>Thực tế bắt đầu</t>
-  </si>
-  <si>
-    <t>Thực tế kết thúc</t>
-  </si>
-  <si>
-    <t>Kết quả</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
+    <t>vẽ crawler</t>
+  </si>
+  <si>
+    <t>vẽ sơ đồ workflow crawler</t>
   </si>
 </sst>
 </file>
@@ -146,7 +134,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,7 +142,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -182,12 +170,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -260,45 +248,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,39 +291,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -621,238 +571,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" style="2" customWidth="1"/>
-    <col min="10" max="14" width="20.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20130217</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20130260</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="15"/>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="G17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+    </row>
+    <row r="18" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="15"/>
+      <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="G18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11">
-        <v>20130217</v>
-      </c>
-      <c r="C2" s="11">
-        <v>20130260</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="7"/>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="19" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="21" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="8"/>
+    </row>
+    <row r="24" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF6A8C2-030D-48A1-B94F-5E1D4734FEF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEBEB5E-11DA-4AA8-9FFB-C5A6CF245946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -39,9 +39,6 @@
     <t>MSSV</t>
   </si>
   <si>
-    <t>Nội dung</t>
-  </si>
-  <si>
     <t>Người thực hiện</t>
   </si>
   <si>
@@ -114,10 +111,25 @@
     <t>Vẽ kiến Transform load to Fact-dim</t>
   </si>
   <si>
-    <t>vẽ crawler</t>
-  </si>
-  <si>
-    <t>vẽ sơ đồ workflow crawler</t>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến bắt đầu</t>
+  </si>
+  <si>
+    <t>Thời gian dự kiến kết thúc</t>
+  </si>
+  <si>
+    <t>Thực tế bắt đầu</t>
+  </si>
+  <si>
+    <t>Thực tế kết thúc</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -142,7 +154,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,12 +182,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -248,52 +260,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,226 +621,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" style="2" customWidth="1"/>
+    <col min="10" max="14" width="20.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11">
+        <v>20130217</v>
+      </c>
+      <c r="C2" s="11">
+        <v>20130260</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20130217</v>
-      </c>
-      <c r="C2" s="4">
-        <v>20130260</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="17" t="s">
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="7"/>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="15"/>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="14" t="s">
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5" t="s">
+    <row r="21" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="15"/>
-      <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="5:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="16"/>
+    <row r="24" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEBEB5E-11DA-4AA8-9FFB-C5A6CF245946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2BEAB1-EDFE-4CF8-8CBD-7A70EF5F416A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -33,30 +33,18 @@
     <t>Bùi Thanh Đảm (Nhóm trưởng)</t>
   </si>
   <si>
-    <t>Thời Gian</t>
-  </si>
-  <si>
     <t>MSSV</t>
   </si>
   <si>
     <t>Người thực hiện</t>
   </si>
   <si>
-    <t xml:space="preserve">Cập nhật hoạt động trello  </t>
-  </si>
-  <si>
     <t>Bùi Thanh Đảm</t>
   </si>
   <si>
     <t>Chi tiết</t>
   </si>
   <si>
-    <t>Cập nhật chọn chủ đề, và file word</t>
-  </si>
-  <si>
-    <t>17/10/2023</t>
-  </si>
-  <si>
     <t>Hoàng Trung Hiếu</t>
   </si>
   <si>
@@ -66,51 +54,15 @@
     <t>18/10/2023</t>
   </si>
   <si>
-    <t>Thiết kế UI Figma</t>
-  </si>
-  <si>
-    <t>Tìm kiếm các thiết kế figma tổng hợp</t>
-  </si>
-  <si>
-    <t>19/10/2023</t>
-  </si>
-  <si>
-    <t>Chọn UI Figma</t>
-  </si>
-  <si>
-    <t>Mockup Data</t>
-  </si>
-  <si>
-    <t>Chọn vài ví dụ để mockup dữ liệu</t>
-  </si>
-  <si>
-    <t>20/10/2023</t>
-  </si>
-  <si>
     <t>21/10/2023</t>
   </si>
   <si>
     <t>22/10/2023</t>
   </si>
   <si>
-    <t>hoàn thành thiết kế</t>
-  </si>
-  <si>
-    <t>23/10/2023</t>
-  </si>
-  <si>
-    <t>Vẽ kiến trúc hệ thống</t>
-  </si>
-  <si>
-    <t>Vẽ activity kiến trúc hệ thống</t>
-  </si>
-  <si>
     <t>24/10/2023</t>
   </si>
   <si>
-    <t>Vẽ kiến Transform load to Fact-dim</t>
-  </si>
-  <si>
     <t>Công việc</t>
   </si>
   <si>
@@ -130,22 +82,83 @@
   </si>
   <si>
     <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>1.1 Vẽ kiến trúc hệ thống 1</t>
+  </si>
+  <si>
+    <t>﻿1 Vẽ kiến trúc hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 Vẽ kiến trúc hệ thống 2 </t>
+  </si>
+  <si>
+    <t>1.3 Vẽ kiến trúc hệ thống 3</t>
+  </si>
+  <si>
+    <t>1.4 Thống nhất kiến trúc</t>
+  </si>
+  <si>
+    <t>2 Chuẩn bị Data</t>
+  </si>
+  <si>
+    <t>2.1 Tạo file data từ source</t>
+  </si>
+  <si>
+    <t>2.2 Load từ table staging vào warehouse</t>
+  </si>
+  <si>
+    <t>2.3 Load từ warehouse vào datamart</t>
+  </si>
+  <si>
+    <t>3 Chuẩn bị Mockup</t>
+  </si>
+  <si>
+    <t>3.1 GUI</t>
+  </si>
+  <si>
+    <t>3.2 Database, table Structure? Data</t>
+  </si>
+  <si>
+    <t>4 Dataflow (Workflow)</t>
+  </si>
+  <si>
+    <t>4.1 Lấy data từ source</t>
+  </si>
+  <si>
+    <t>4.2 Load data vào staging</t>
+  </si>
+  <si>
+    <t>4.3 Load data từ staging vào warehouse</t>
+  </si>
+  <si>
+    <t>4.3 Load warehouse vào datamart</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>3.2.1 Staging</t>
+  </si>
+  <si>
+    <t>3.2.2 Warehouse</t>
+  </si>
+  <si>
+    <t>3.2.3 Datamart</t>
+  </si>
+  <si>
+    <t>File kiến trúc hệ thống (trello và drive)</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -156,12 +169,43 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,18 +220,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -230,30 +280,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -279,6 +305,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -288,58 +325,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,250 +732,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" style="2" customWidth="1"/>
-    <col min="10" max="14" width="20.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" style="43" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="42" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="43" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" style="48" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="49" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20130217</v>
+      </c>
+      <c r="C2" s="8">
+        <v>20130260</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="F2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="24"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="K3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14"/>
+      <c r="F7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="14"/>
+      <c r="F8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="47"/>
+    </row>
+    <row r="9" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="15"/>
+      <c r="F9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+    </row>
+    <row r="10" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="15"/>
+      <c r="F10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
+    </row>
+    <row r="11" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="15"/>
+      <c r="F11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45"/>
+    </row>
+    <row r="12" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="15"/>
+      <c r="F12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="15"/>
+      <c r="F13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="15"/>
+      <c r="F14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
+    </row>
+    <row r="15" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="15"/>
+      <c r="F15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+    </row>
+    <row r="16" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="15"/>
+      <c r="F16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="15"/>
+      <c r="F17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+    </row>
+    <row r="18" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="15"/>
+      <c r="F18" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="K18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="15"/>
+      <c r="F19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
+    </row>
+    <row r="20" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="15"/>
+      <c r="F20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11">
-        <v>20130217</v>
-      </c>
-      <c r="C2" s="11">
-        <v>20130260</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="7"/>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="5:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="8"/>
+      <c r="J20" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="15"/>
+      <c r="F21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+    </row>
+    <row r="22" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="15"/>
+      <c r="J22" s="42"/>
+    </row>
+    <row r="23" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
+  <mergeCells count="1">
+    <mergeCell ref="E1:E1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2BEAB1-EDFE-4CF8-8CBD-7A70EF5F416A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0BD502-4430-4153-85AB-9E0F99F708F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>File crawler (trello và drive)</t>
+  </si>
+  <si>
+    <t>File load to warehouse (trello và drive)</t>
+  </si>
+  <si>
+    <t>Giao diên figma + code html css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data mẫu </t>
   </si>
 </sst>
 </file>
@@ -325,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,12 +369,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -427,10 +438,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -451,6 +462,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +764,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -744,16 +773,16 @@
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="48" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="41" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="43" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="42" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" style="43" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" style="48" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="49" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" style="53" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="41" customWidth="1"/>
+    <col min="13" max="13" width="20.77734375" style="46" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="47" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -770,29 +799,29 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -811,376 +840,422 @@
         <v>20130260</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="47"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="47"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14"/>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="14"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="F9" s="28" t="s">
+      <c r="C9" s="14"/>
+      <c r="F9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="14"/>
+      <c r="F10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="47"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="F11" s="25" t="s">
+      <c r="C11" s="14"/>
+      <c r="F11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="F12" s="28" t="s">
+      <c r="C12" s="14"/>
+      <c r="F12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="38" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47" t="s">
+      <c r="M12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="14"/>
+      <c r="F13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="38" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="38" t="s">
+      <c r="L13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47" t="s">
+      <c r="M13" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="14"/>
+      <c r="F14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="F15" s="28" t="s">
+      <c r="C15" s="14"/>
+      <c r="F15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="F16" s="28" t="s">
+      <c r="C16" s="14"/>
+      <c r="F16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="47"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="F17" s="25" t="s">
+      <c r="C17" s="14"/>
+      <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="45"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
-      <c r="F18" s="28" t="s">
+      <c r="C18" s="14"/>
+      <c r="F18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47" t="s">
+      <c r="M18" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
-      <c r="F19" s="28" t="s">
+      <c r="C19" s="14"/>
+      <c r="F19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="38" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="45"/>
     </row>
     <row r="20" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="F20" s="28" t="s">
+      <c r="C20" s="14"/>
+      <c r="F20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="38" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47" t="s">
+      <c r="L20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="45" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
-      <c r="F21" s="28" t="s">
+      <c r="C21" s="14"/>
+      <c r="F21" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="49">
+        <v>44937</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="45"/>
     </row>
     <row r="22" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
-      <c r="J22" s="42"/>
+      <c r="C22" s="14"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
+      <c r="C23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0BD502-4430-4153-85AB-9E0F99F708F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3723EC-AEC7-4B75-8AC8-396485A47785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t xml:space="preserve">Data mẫu </t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
   </si>
 </sst>
 </file>
@@ -463,23 +466,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,22 +766,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" style="52" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" style="40" customWidth="1"/>
     <col min="12" max="12" width="20.77734375" style="41" customWidth="1"/>
     <col min="13" max="13" width="20.77734375" style="46" customWidth="1"/>
@@ -799,7 +802,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -812,7 +815,7 @@
       <c r="I1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="17" t="s">
@@ -848,7 +851,7 @@
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="33"/>
-      <c r="J2" s="51"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="34"/>
       <c r="L2" s="35"/>
       <c r="M2" s="42"/>
@@ -869,7 +872,7 @@
       <c r="I3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="48" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="36" t="s">
@@ -896,7 +899,7 @@
       <c r="I4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <v>44937</v>
       </c>
       <c r="K4" s="37"/>
@@ -915,7 +918,7 @@
       <c r="I5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <v>44937</v>
       </c>
       <c r="K5" s="37"/>
@@ -932,7 +935,7 @@
       <c r="I6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="48">
         <v>44937</v>
       </c>
       <c r="K6" s="37"/>
@@ -949,7 +952,7 @@
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="33"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
       <c r="M7" s="42"/>
@@ -966,7 +969,7 @@
       <c r="I8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="48">
         <v>44937</v>
       </c>
       <c r="K8" s="37"/>
@@ -986,7 +989,7 @@
       <c r="I9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="48">
         <v>44937</v>
       </c>
       <c r="K9" s="37"/>
@@ -1006,7 +1009,7 @@
       <c r="I10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="48">
         <v>44937</v>
       </c>
       <c r="K10" s="37"/>
@@ -1024,7 +1027,7 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="34"/>
       <c r="L11" s="35"/>
       <c r="M11" s="42"/>
@@ -1042,7 +1045,7 @@
       <c r="I12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="48" t="s">
         <v>10</v>
       </c>
       <c r="K12" s="36" t="s">
@@ -1070,7 +1073,7 @@
       <c r="I13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="49" t="s">
+      <c r="J13" s="48" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="36" t="s">
@@ -1091,15 +1094,19 @@
       <c r="F14" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="48">
         <v>44937</v>
       </c>
-      <c r="K14" s="37"/>
+      <c r="K14" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="L14" s="38"/>
       <c r="M14" s="44"/>
       <c r="N14" s="45"/>
@@ -1109,15 +1116,19 @@
       <c r="F15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="H15" s="28"/>
       <c r="I15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="48">
         <v>44937</v>
       </c>
-      <c r="K15" s="37"/>
+      <c r="K15" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="L15" s="38"/>
       <c r="M15" s="44"/>
       <c r="N15" s="45"/>
@@ -1127,15 +1138,19 @@
       <c r="F16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="H16" s="28"/>
       <c r="I16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="48">
         <v>44937</v>
       </c>
-      <c r="K16" s="37"/>
+      <c r="K16" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="L16" s="38"/>
       <c r="M16" s="44"/>
       <c r="N16" s="45"/>
@@ -1150,7 +1165,7 @@
       </c>
       <c r="H17" s="25"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="51"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="34"/>
       <c r="L17" s="35"/>
       <c r="M17" s="42"/>
@@ -1168,7 +1183,7 @@
       <c r="I18" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="48" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="36" t="s">
@@ -1196,7 +1211,7 @@
       <c r="I19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="49" t="s">
+      <c r="J19" s="48" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="36"/>
@@ -1216,7 +1231,7 @@
       <c r="I20" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="48" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="36" t="s">
@@ -1242,7 +1257,7 @@
       <c r="I21" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="48">
         <v>44937</v>
       </c>
       <c r="K21" s="37"/>
@@ -1252,7 +1267,7 @@
     </row>
     <row r="22" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
-      <c r="J22" s="52"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="23" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3723EC-AEC7-4B75-8AC8-396485A47785}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FEB168-B7D3-47C0-86FC-FEBD8290E7E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -159,9 +159,6 @@
     <t>File crawler (trello và drive)</t>
   </si>
   <si>
-    <t>File load to warehouse (trello và drive)</t>
-  </si>
-  <si>
     <t>Giao diên figma + code html css</t>
   </si>
   <si>
@@ -169,6 +166,15 @@
   </si>
   <si>
     <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>File load to staging (trello và drive)</t>
+  </si>
+  <si>
+    <t>File load,trànform to warehouse (trello và drive)</t>
   </si>
 </sst>
 </file>
@@ -766,11 +772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
@@ -1055,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" s="45" t="s">
         <v>41</v>
@@ -1083,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="45" t="s">
         <v>41</v>
@@ -1105,7 +1111,7 @@
         <v>44937</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="44"/>
@@ -1127,7 +1133,7 @@
         <v>44937</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="38"/>
       <c r="M15" s="44"/>
@@ -1149,7 +1155,7 @@
         <v>44937</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="44"/>
@@ -1204,8 +1210,8 @@
       <c r="F19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>7</v>
+      <c r="G19" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="36" t="s">
@@ -1214,10 +1220,18 @@
       <c r="J19" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="45"/>
+      <c r="K19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="45" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
@@ -1241,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N20" s="45" t="s">
         <v>41</v>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FEB168-B7D3-47C0-86FC-FEBD8290E7E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E1A215-8785-4C5F-BC19-1A2CF9DD645E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>File load,trànform to warehouse (trello và drive)</t>
+  </si>
+  <si>
+    <t>29/10/2013</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,30 +775,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="52" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="40" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" style="41" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="20.77734375" style="47" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="15.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="52" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="41" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="46" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="47" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +841,7 @@
       </c>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -863,7 +866,7 @@
       <c r="M2" s="42"/>
       <c r="N2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -894,7 +897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="26" t="s">
         <v>21</v>
       </c>
@@ -908,12 +911,20 @@
       <c r="J4" s="48">
         <v>44937</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F5" s="30" t="s">
         <v>22</v>
       </c>
@@ -932,7 +943,7 @@
       <c r="M5" s="44"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="26" t="s">
         <v>23</v>
       </c>
@@ -949,7 +960,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="23" t="s">
         <v>24</v>
       </c>
@@ -964,7 +975,7 @@
       <c r="M7" s="42"/>
       <c r="N7" s="43"/>
     </row>
-    <row r="8" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="26" t="s">
         <v>25</v>
       </c>
@@ -983,7 +994,7 @@
       <c r="M8" s="44"/>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="F9" s="26" t="s">
         <v>26</v>
@@ -1003,7 +1014,7 @@
       <c r="M9" s="44"/>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
       <c r="F10" s="26" t="s">
         <v>27</v>
@@ -1023,7 +1034,7 @@
       <c r="M10" s="44"/>
       <c r="N10" s="45"/>
     </row>
-    <row r="11" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="F11" s="23" t="s">
         <v>28</v>
@@ -1039,7 +1050,7 @@
       <c r="M11" s="42"/>
       <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
       <c r="F12" s="26" t="s">
         <v>29</v>
@@ -1067,7 +1078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="F13" s="26" t="s">
         <v>30</v>
@@ -1095,7 +1106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="F14" s="26" t="s">
         <v>37</v>
@@ -1117,7 +1128,7 @@
       <c r="M14" s="44"/>
       <c r="N14" s="45"/>
     </row>
-    <row r="15" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="F15" s="26" t="s">
         <v>38</v>
@@ -1139,7 +1150,7 @@
       <c r="M15" s="44"/>
       <c r="N15" s="45"/>
     </row>
-    <row r="16" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="F16" s="26" t="s">
         <v>39</v>
@@ -1161,7 +1172,7 @@
       <c r="M16" s="44"/>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
       <c r="F17" s="23" t="s">
         <v>31</v>
@@ -1177,7 +1188,7 @@
       <c r="M17" s="42"/>
       <c r="N17" s="43"/>
     </row>
-    <row r="18" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
       <c r="F18" s="26" t="s">
         <v>32</v>
@@ -1205,7 +1216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
       <c r="F19" s="26" t="s">
         <v>33</v>
@@ -1233,7 +1244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
       <c r="F20" s="26" t="s">
         <v>34</v>
@@ -1261,7 +1272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="F21" s="26" t="s">
         <v>35</v>
@@ -1279,11 +1290,11 @@
       <c r="M21" s="44"/>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="J22" s="51"/>
     </row>
-    <row r="23" spans="3:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
     </row>
   </sheetData>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E1A215-8785-4C5F-BC19-1A2CF9DD645E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF387F4-AE8C-426C-BF53-9CC5A53533DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>29/10/2013</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,29 +779,29 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="52" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="41" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="47" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="41" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="46" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="47" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +844,7 @@
       </c>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -866,7 +869,7 @@
       <c r="M2" s="42"/>
       <c r="N2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -897,7 +900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="26" t="s">
         <v>21</v>
       </c>
@@ -924,7 +927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="30" t="s">
         <v>22</v>
       </c>
@@ -943,7 +946,7 @@
       <c r="M5" s="44"/>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F6" s="26" t="s">
         <v>23</v>
       </c>
@@ -960,7 +963,7 @@
       <c r="M6" s="44"/>
       <c r="N6" s="45"/>
     </row>
-    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F7" s="23" t="s">
         <v>24</v>
       </c>
@@ -975,7 +978,7 @@
       <c r="M7" s="42"/>
       <c r="N7" s="43"/>
     </row>
-    <row r="8" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="26" t="s">
         <v>25</v>
       </c>
@@ -994,7 +997,7 @@
       <c r="M8" s="44"/>
       <c r="N8" s="45"/>
     </row>
-    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
       <c r="F9" s="26" t="s">
         <v>26</v>
@@ -1014,7 +1017,7 @@
       <c r="M9" s="44"/>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14"/>
       <c r="F10" s="26" t="s">
         <v>27</v>
@@ -1034,7 +1037,7 @@
       <c r="M10" s="44"/>
       <c r="N10" s="45"/>
     </row>
-    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14"/>
       <c r="F11" s="23" t="s">
         <v>28</v>
@@ -1050,7 +1053,7 @@
       <c r="M11" s="42"/>
       <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="F12" s="26" t="s">
         <v>29</v>
@@ -1078,7 +1081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="F13" s="26" t="s">
         <v>30</v>
@@ -1106,13 +1109,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="F14" s="26" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14" s="28"/>
       <c r="I14" s="36" t="s">
@@ -1124,17 +1127,21 @@
       <c r="K14" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="38" t="s">
+        <v>51</v>
+      </c>
       <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
-    </row>
-    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="F15" s="26" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="36" t="s">
@@ -1150,7 +1157,7 @@
       <c r="M15" s="44"/>
       <c r="N15" s="45"/>
     </row>
-    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
       <c r="F16" s="26" t="s">
         <v>39</v>
@@ -1172,7 +1179,7 @@
       <c r="M16" s="44"/>
       <c r="N16" s="45"/>
     </row>
-    <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="F17" s="23" t="s">
         <v>31</v>
@@ -1188,7 +1195,7 @@
       <c r="M17" s="42"/>
       <c r="N17" s="43"/>
     </row>
-    <row r="18" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="F18" s="26" t="s">
         <v>32</v>
@@ -1216,7 +1223,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="F19" s="26" t="s">
         <v>33</v>
@@ -1244,7 +1251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="F20" s="26" t="s">
         <v>34</v>
@@ -1272,7 +1279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="F21" s="26" t="s">
         <v>35</v>
@@ -1290,11 +1297,11 @@
       <c r="M21" s="44"/>
       <c r="N21" s="45"/>
     </row>
-    <row r="22" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="J22" s="51"/>
     </row>
-    <row r="23" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
     </row>
   </sheetData>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF387F4-AE8C-426C-BF53-9CC5A53533DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0939FDB6-5595-48D0-83AC-23679B2B8760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,6 +495,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,11 +781,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
@@ -1153,9 +1156,15 @@
       <c r="K15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="38"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
+      <c r="L15" s="54">
+        <v>44937</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0939FDB6-5595-48D0-83AC-23679B2B8760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D14FE9-FA48-499A-9001-3B25553BFB0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1944" yWindow="1284" windowWidth="20520" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -493,11 +493,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,17 +781,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="54" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
@@ -817,7 +817,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1133,9 @@
       <c r="L14" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="44"/>
+      <c r="M14" s="44" t="s">
+        <v>45</v>
+      </c>
       <c r="N14" s="45" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1158,7 @@
       <c r="K15" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="54">
+      <c r="L15" s="53">
         <v>44937</v>
       </c>
       <c r="M15" s="44" t="s">

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D14FE9-FA48-499A-9001-3B25553BFB0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FFBC22-3497-449C-899E-E889B4B1B059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1944" yWindow="1284" windowWidth="20520" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1800" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>30/10/2023</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Đảm, Hoàng Trung Hiếu</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Đảm, Hoàng Trung Hiếu,Thành Đạt</t>
   </si>
 </sst>
 </file>
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -403,9 +409,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,25 +785,25 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="52" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="40" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="41" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="46" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="47" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="46" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
@@ -817,7 +820,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="54"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -827,10 +830,10 @@
       <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="17" t="s">
@@ -861,456 +864,456 @@
       <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
+      <c r="G2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <v>44937</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="45" t="s">
+      <c r="N4" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="47">
         <v>44937</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="36" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="47">
         <v>44937</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="43"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="36" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="47">
         <v>44937</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="47">
         <v>44937</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14"/>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="36" t="s">
+      <c r="H10" s="27"/>
+      <c r="I10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="47">
         <v>44937</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="45"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14"/>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="43"/>
+      <c r="G11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="36" t="s">
+      <c r="H12" s="27"/>
+      <c r="I12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="M12" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="N12" s="45" t="s">
+      <c r="N12" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="36" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="36" t="s">
+      <c r="H14" s="27"/>
+      <c r="I14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="47">
         <v>44937</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="47">
         <v>44937</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="52">
         <v>44937</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="27"/>
+      <c r="I16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="47">
         <v>44937</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="G17" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="27"/>
+      <c r="I18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="36" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="N20" s="44" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="36" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="47">
         <v>44937</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
-      <c r="J22" s="51"/>
+      <c r="J22" s="50"/>
     </row>
     <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FFBC22-3497-449C-899E-E889B4B1B059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9AB95C-68C8-4241-BBE5-F899B72B1EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1800" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="1152" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -120,21 +120,6 @@
     <t>3.2 Database, table Structure? Data</t>
   </si>
   <si>
-    <t>4 Dataflow (Workflow)</t>
-  </si>
-  <si>
-    <t>4.1 Lấy data từ source</t>
-  </si>
-  <si>
-    <t>4.2 Load data vào staging</t>
-  </si>
-  <si>
-    <t>4.3 Load data từ staging vào warehouse</t>
-  </si>
-  <si>
-    <t>4.3 Load warehouse vào datamart</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -187,6 +172,42 @@
   </si>
   <si>
     <t>Bùi Thanh Đảm, Hoàng Trung Hiếu,Thành Đạt</t>
+  </si>
+  <si>
+    <t>4.1.1 Lấy data từ source</t>
+  </si>
+  <si>
+    <t>4.1.2 Load data vào staging</t>
+  </si>
+  <si>
+    <t>4.1.3 Load data từ staging vào warehouse</t>
+  </si>
+  <si>
+    <t>4.1.4 Load warehouse vào datamart</t>
+  </si>
+  <si>
+    <t>4.1 Dataflow (Workflow)</t>
+  </si>
+  <si>
+    <t>4.2.1 Lấy data từ source</t>
+  </si>
+  <si>
+    <t>4.2.2 Load data vào staging</t>
+  </si>
+  <si>
+    <t>4.2.3 Load data từ staging vào warehouse</t>
+  </si>
+  <si>
+    <t>4.2.4 Load warehouse vào datamart</t>
+  </si>
+  <si>
+    <t>file excel dataflow sheet transform</t>
+  </si>
+  <si>
+    <t>hoanf thành</t>
+  </si>
+  <si>
+    <t>4.2 Dataflow (Dataflow)</t>
   </si>
 </sst>
 </file>
@@ -361,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -488,9 +509,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -782,24 +800,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="52" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="51" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="50" customWidth="1"/>
     <col min="11" max="11" width="17.5546875" style="39" customWidth="1"/>
     <col min="12" max="12" width="20.6640625" style="40" customWidth="1"/>
     <col min="13" max="13" width="20.6640625" style="45" customWidth="1"/>
@@ -820,7 +838,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -865,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="32"/>
@@ -900,10 +918,10 @@
         <v>9</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N3" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -921,16 +939,16 @@
         <v>44937</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M4" s="43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N4" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
@@ -974,7 +992,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="32"/>
@@ -1049,7 +1067,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="32"/>
@@ -1081,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="M12" s="43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N12" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,16 +1127,16 @@
         <v>8</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N13" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="F14" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>4</v>
@@ -1131,22 +1149,22 @@
         <v>44937</v>
       </c>
       <c r="K14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="37" t="s">
-        <v>51</v>
-      </c>
       <c r="M14" s="43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N14" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="F15" s="25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>6</v>
@@ -1159,22 +1177,22 @@
         <v>44937</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="52">
+        <v>41</v>
+      </c>
+      <c r="L15" s="51">
         <v>44937</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N15" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
       <c r="F16" s="25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>4</v>
@@ -1187,7 +1205,7 @@
         <v>44937</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="43"/>
@@ -1196,10 +1214,10 @@
     <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="F17" s="22" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="32"/>
@@ -1212,7 +1230,7 @@
     <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="F18" s="25" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>6</v>
@@ -1231,16 +1249,16 @@
         <v>10</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N18" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="F19" s="25" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>4</v>
@@ -1253,22 +1271,22 @@
         <v>11</v>
       </c>
       <c r="K19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="35" t="s">
-        <v>47</v>
-      </c>
       <c r="M19" s="43" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="F20" s="25" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>4</v>
@@ -1284,19 +1302,19 @@
         <v>10</v>
       </c>
       <c r="L20" s="35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N20" s="44" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="F21" s="25" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="27"/>
@@ -1313,10 +1331,99 @@
     </row>
     <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
-      <c r="J22" s="50"/>
+      <c r="F22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
     </row>
     <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
+      <c r="F23" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="47">
+        <v>45088</v>
+      </c>
+      <c r="J23" s="47"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
+    </row>
+    <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14"/>
+      <c r="F24" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="47">
+        <v>45088</v>
+      </c>
+      <c r="J24" s="47"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
+    </row>
+    <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14"/>
+      <c r="F25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="47">
+        <v>45057</v>
+      </c>
+      <c r="J25" s="47">
+        <v>45088</v>
+      </c>
+      <c r="K25" s="47">
+        <v>45057</v>
+      </c>
+      <c r="L25" s="47">
+        <v>45088</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14"/>
+      <c r="F26" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="47">
+        <v>45088</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9AB95C-68C8-4241-BBE5-F899B72B1EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDA3392-BBC0-42A5-8B04-43233B079CC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="1152" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="900" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>4.2 Dataflow (Dataflow)</t>
+  </si>
+  <si>
+    <t>file dataflow sheet extract</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -519,6 +525,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,11 +811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
@@ -1194,8 +1203,8 @@
       <c r="F16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>4</v>
+      <c r="G16" s="53" t="s">
+        <v>7</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="35" t="s">
@@ -1204,8 +1213,8 @@
       <c r="J16" s="47">
         <v>44937</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>41</v>
+      <c r="K16" s="47">
+        <v>45088</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="43"/>
@@ -1316,7 +1325,9 @@
       <c r="F21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="53" t="s">
+        <v>7</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="35" t="s">
         <v>9</v>
@@ -1324,7 +1335,9 @@
       <c r="J21" s="47">
         <v>44937</v>
       </c>
-      <c r="K21" s="36"/>
+      <c r="K21" s="47">
+        <v>45088</v>
+      </c>
       <c r="L21" s="37"/>
       <c r="M21" s="43"/>
       <c r="N21" s="44"/>
@@ -1375,11 +1388,21 @@
       <c r="I24" s="47">
         <v>45088</v>
       </c>
-      <c r="J24" s="47"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
+      <c r="J24" s="47">
+        <v>45088</v>
+      </c>
+      <c r="K24" s="47">
+        <v>45088</v>
+      </c>
+      <c r="L24" s="47">
+        <v>45088</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="44" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDA3392-BBC0-42A5-8B04-43233B079CC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB031E-D649-4938-8CEC-23F2F6139895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="900" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1620" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Bùi Thanh Đảm, Hoàng Trung Hiếu</t>
-  </si>
-  <si>
-    <t>Bùi Thanh Đảm, Hoàng Trung Hiếu,Thành Đạt</t>
   </si>
   <si>
     <t>4.1.1 Lấy data từ source</t>
@@ -523,11 +520,11 @@
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,17 +808,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="52" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
@@ -847,7 +844,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -892,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="32"/>
@@ -1203,7 +1200,7 @@
       <c r="F16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="27"/>
@@ -1223,10 +1220,10 @@
     <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="F17" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="32"/>
@@ -1239,7 +1236,7 @@
     <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="F18" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>6</v>
@@ -1267,7 +1264,7 @@
     <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="F19" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>4</v>
@@ -1295,7 +1292,7 @@
     <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="F20" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>4</v>
@@ -1323,9 +1320,9 @@
     <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="F21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="27"/>
@@ -1345,7 +1342,7 @@
     <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="F22" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>47</v>
@@ -1361,7 +1358,7 @@
     <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
       <c r="F23" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>6</v>
@@ -1379,7 +1376,7 @@
     <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="F24" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>4</v>
@@ -1398,16 +1395,16 @@
         <v>45088</v>
       </c>
       <c r="M24" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="44" t="s">
         <v>61</v>
-      </c>
-      <c r="N24" s="44" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="F25" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>4</v>
@@ -1426,16 +1423,16 @@
         <v>45088</v>
       </c>
       <c r="M25" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="44" t="s">
         <v>58</v>
-      </c>
-      <c r="N25" s="44" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14"/>
       <c r="F26" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB031E-D649-4938-8CEC-23F2F6139895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE869EF-DFF0-4D69-88D0-89083C78E8B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1620" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>hoàn thành</t>
+  </si>
+  <si>
+    <t>Võ Thành Đạt</t>
+  </si>
+  <si>
+    <t>file dataflow sheet crawler</t>
   </si>
 </sst>
 </file>
@@ -385,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -519,9 +525,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -809,16 +812,16 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="52" customWidth="1"/>
     <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
@@ -844,7 +847,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -962,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="35" t="s">
@@ -1173,7 +1176,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="35" t="s">
@@ -1200,8 +1203,8 @@
       <c r="F16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="52" t="s">
-        <v>7</v>
+      <c r="G16" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="35" t="s">
@@ -1213,9 +1216,15 @@
       <c r="K16" s="47">
         <v>45088</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
+      <c r="L16" s="51">
+        <v>45210</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
@@ -1322,8 +1331,8 @@
       <c r="F21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="52" t="s">
-        <v>7</v>
+      <c r="G21" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="35" t="s">
@@ -1370,7 +1379,9 @@
       <c r="J23" s="47"/>
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="43"/>
+      <c r="M23" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="N23" s="44"/>
     </row>
     <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB031E-D649-4938-8CEC-23F2F6139895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727A6DC-3B2C-4E97-8B01-C4465B4B23CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1620" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>hoàn thành</t>
+  </si>
+  <si>
+    <t>file dataflow sheet crawler</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -808,30 +811,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="39" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="15.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="40" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="46" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +877,7 @@
       </c>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -899,7 +902,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -930,7 +933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="25" t="s">
         <v>21</v>
       </c>
@@ -957,7 +960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F5" s="29" t="s">
         <v>22</v>
       </c>
@@ -976,7 +979,7 @@
       <c r="M5" s="43"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="25" t="s">
         <v>23</v>
       </c>
@@ -993,7 +996,7 @@
       <c r="M6" s="43"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1011,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="25" t="s">
         <v>25</v>
       </c>
@@ -1027,7 +1030,7 @@
       <c r="M8" s="43"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="F9" s="25" t="s">
         <v>26</v>
@@ -1047,7 +1050,7 @@
       <c r="M9" s="43"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
       <c r="F10" s="25" t="s">
         <v>27</v>
@@ -1067,7 +1070,7 @@
       <c r="M10" s="43"/>
       <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="F11" s="22" t="s">
         <v>28</v>
@@ -1083,7 +1086,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="42"/>
     </row>
-    <row r="12" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
       <c r="F12" s="25" t="s">
         <v>29</v>
@@ -1111,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="F13" s="25" t="s">
         <v>30</v>
@@ -1139,7 +1142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="F14" s="25" t="s">
         <v>32</v>
@@ -1167,7 +1170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="F15" s="25" t="s">
         <v>33</v>
@@ -1195,7 +1198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="F16" s="25" t="s">
         <v>34</v>
@@ -1217,7 +1220,7 @@
       <c r="M16" s="43"/>
       <c r="N16" s="44"/>
     </row>
-    <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
       <c r="F17" s="22" t="s">
         <v>52</v>
@@ -1233,7 +1236,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
       <c r="F18" s="25" t="s">
         <v>48</v>
@@ -1261,7 +1264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
       <c r="F19" s="25" t="s">
         <v>49</v>
@@ -1289,7 +1292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
       <c r="F20" s="25" t="s">
         <v>50</v>
@@ -1317,7 +1320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="F21" s="25" t="s">
         <v>51</v>
@@ -1339,7 +1342,7 @@
       <c r="M21" s="43"/>
       <c r="N21" s="44"/>
     </row>
-    <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="F22" s="22" t="s">
         <v>59</v>
@@ -1355,7 +1358,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
       <c r="F23" s="25" t="s">
         <v>53</v>
@@ -1367,13 +1370,23 @@
       <c r="I23" s="47">
         <v>45088</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="44"/>
-    </row>
-    <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="47">
+        <v>45241</v>
+      </c>
+      <c r="K23" s="35">
+        <v>45241</v>
+      </c>
+      <c r="L23" s="35">
+        <v>45241</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="F24" s="25" t="s">
         <v>54</v>
@@ -1401,7 +1414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="F25" s="25" t="s">
         <v>55</v>
@@ -1429,7 +1442,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="14"/>
       <c r="F26" s="25" t="s">
         <v>56</v>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727A6DC-3B2C-4E97-8B01-C4465B4B23CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED523046-9D9B-4F89-AE2A-9BBDF60C74E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>hoàn thành</t>
+  </si>
+  <si>
+    <t>Võ Thành Đạt</t>
   </si>
   <si>
     <t>file dataflow sheet crawler</t>
@@ -388,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -522,9 +525,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
     <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="52" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
@@ -847,7 +847,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -965,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="35" t="s">
@@ -1176,7 +1176,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="35" t="s">
@@ -1203,8 +1203,8 @@
       <c r="F16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="52" t="s">
-        <v>7</v>
+      <c r="G16" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="35" t="s">
@@ -1216,9 +1216,15 @@
       <c r="K16" s="47">
         <v>45088</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
+      <c r="L16" s="51">
+        <v>45210</v>
+      </c>
+      <c r="M16" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
@@ -1325,8 +1331,8 @@
       <c r="F21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="52" t="s">
-        <v>7</v>
+      <c r="G21" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="35" t="s">
@@ -1380,7 +1386,7 @@
         <v>45241</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N23" s="44" t="s">
         <v>61</v>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED523046-9D9B-4F89-AE2A-9BBDF60C74E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727A6DC-3B2C-4E97-8B01-C4465B4B23CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>hoàn thành</t>
-  </si>
-  <si>
-    <t>Võ Thành Đạt</t>
   </si>
   <si>
     <t>file dataflow sheet crawler</t>
@@ -391,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -525,6 +522,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
     <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="53" customWidth="1"/>
     <col min="6" max="6" width="36.42578125" style="13" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
@@ -847,7 +847,7 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="52"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
@@ -965,7 +965,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="35" t="s">
@@ -1176,7 +1176,7 @@
         <v>33</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="35" t="s">
@@ -1203,8 +1203,8 @@
       <c r="F16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>4</v>
+      <c r="G16" s="52" t="s">
+        <v>7</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="35" t="s">
@@ -1216,15 +1216,9 @@
       <c r="K16" s="47">
         <v>45088</v>
       </c>
-      <c r="L16" s="51">
-        <v>45210</v>
-      </c>
-      <c r="M16" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>36</v>
-      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
@@ -1331,8 +1325,8 @@
       <c r="F21" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>62</v>
+      <c r="G21" s="52" t="s">
+        <v>7</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="35" t="s">
@@ -1386,7 +1380,7 @@
         <v>45241</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N23" s="44" t="s">
         <v>61</v>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727A6DC-3B2C-4E97-8B01-C4465B4B23CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB031E-D649-4938-8CEC-23F2F6139895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1620" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t>hoàn thành</t>
-  </si>
-  <si>
-    <t>file dataflow sheet crawler</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,30 +808,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="50" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="40" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="50" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="46" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +874,7 @@
       </c>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -902,7 +899,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -933,7 +930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="25" t="s">
         <v>21</v>
       </c>
@@ -960,7 +957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="29" t="s">
         <v>22</v>
       </c>
@@ -979,7 +976,7 @@
       <c r="M5" s="43"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F6" s="25" t="s">
         <v>23</v>
       </c>
@@ -996,7 +993,7 @@
       <c r="M6" s="43"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1008,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="25" t="s">
         <v>25</v>
       </c>
@@ -1030,7 +1027,7 @@
       <c r="M8" s="43"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14"/>
       <c r="F9" s="25" t="s">
         <v>26</v>
@@ -1050,7 +1047,7 @@
       <c r="M9" s="43"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14"/>
       <c r="F10" s="25" t="s">
         <v>27</v>
@@ -1070,7 +1067,7 @@
       <c r="M10" s="43"/>
       <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14"/>
       <c r="F11" s="22" t="s">
         <v>28</v>
@@ -1086,7 +1083,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="42"/>
     </row>
-    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14"/>
       <c r="F12" s="25" t="s">
         <v>29</v>
@@ -1114,7 +1111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14"/>
       <c r="F13" s="25" t="s">
         <v>30</v>
@@ -1142,7 +1139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14"/>
       <c r="F14" s="25" t="s">
         <v>32</v>
@@ -1170,7 +1167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14"/>
       <c r="F15" s="25" t="s">
         <v>33</v>
@@ -1198,7 +1195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14"/>
       <c r="F16" s="25" t="s">
         <v>34</v>
@@ -1220,7 +1217,7 @@
       <c r="M16" s="43"/>
       <c r="N16" s="44"/>
     </row>
-    <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14"/>
       <c r="F17" s="22" t="s">
         <v>52</v>
@@ -1236,7 +1233,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14"/>
       <c r="F18" s="25" t="s">
         <v>48</v>
@@ -1264,7 +1261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14"/>
       <c r="F19" s="25" t="s">
         <v>49</v>
@@ -1292,7 +1289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14"/>
       <c r="F20" s="25" t="s">
         <v>50</v>
@@ -1320,7 +1317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14"/>
       <c r="F21" s="25" t="s">
         <v>51</v>
@@ -1342,7 +1339,7 @@
       <c r="M21" s="43"/>
       <c r="N21" s="44"/>
     </row>
-    <row r="22" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14"/>
       <c r="F22" s="22" t="s">
         <v>59</v>
@@ -1358,7 +1355,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14"/>
       <c r="F23" s="25" t="s">
         <v>53</v>
@@ -1370,23 +1367,13 @@
       <c r="I23" s="47">
         <v>45088</v>
       </c>
-      <c r="J23" s="47">
-        <v>45241</v>
-      </c>
-      <c r="K23" s="35">
-        <v>45241</v>
-      </c>
-      <c r="L23" s="35">
-        <v>45241</v>
-      </c>
-      <c r="M23" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="47"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
+    </row>
+    <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14"/>
       <c r="F24" s="25" t="s">
         <v>54</v>
@@ -1414,7 +1401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14"/>
       <c r="F25" s="25" t="s">
         <v>55</v>
@@ -1442,7 +1429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14"/>
       <c r="F26" s="25" t="s">
         <v>56</v>

--- a/Timepoints.xlsx
+++ b/Timepoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BuiThanhDam02GmailGithub\DW_2023_T2_Nhom9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Student\Nam4_HK1\Data Warehouse\DW_2023_T2_Nhom9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE869EF-DFF0-4D69-88D0-89083C78E8B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95323730-29EA-4E8D-A722-4DA7245ED240}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1620" windowWidth="20520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>Thành Viên</t>
   </si>
@@ -531,7 +531,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -811,30 +811,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="40.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="38" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="39" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="46" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="15.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="50" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="40" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="46" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
       </c>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="M2" s="41"/>
       <c r="N2" s="42"/>
     </row>
-    <row r="3" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -933,7 +933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F4" s="25" t="s">
         <v>21</v>
       </c>
@@ -960,7 +960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F5" s="29" t="s">
         <v>22</v>
       </c>
@@ -979,7 +979,7 @@
       <c r="M5" s="43"/>
       <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="25" t="s">
         <v>23</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="M6" s="43"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="22" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
     </row>
-    <row r="8" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="25" t="s">
         <v>25</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="M8" s="43"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
       <c r="F9" s="25" t="s">
         <v>26</v>
@@ -1050,7 +1050,7 @@
       <c r="M9" s="43"/>
       <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="14"/>
       <c r="F10" s="25" t="s">
         <v>27</v>
@@ -1070,7 +1070,7 @@
       <c r="M10" s="43"/>
       <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>
       <c r="F11" s="22" t="s">
         <v>28</v>
@@ -1086,7 +1086,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="42"/>
     </row>
-    <row r="12" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="14"/>
       <c r="F12" s="25" t="s">
         <v>29</v>
@@ -1114,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
       <c r="F13" s="25" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="14"/>
       <c r="F14" s="25" t="s">
         <v>32</v>
@@ -1170,7 +1170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14"/>
       <c r="F15" s="25" t="s">
         <v>33</v>
@@ -1198,7 +1198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14"/>
       <c r="F16" s="25" t="s">
         <v>34</v>
@@ -1226,7 +1226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14"/>
       <c r="F17" s="22" t="s">
         <v>52</v>
@@ -1242,7 +1242,7 @@
       <c r="M17" s="41"/>
       <c r="N17" s="42"/>
     </row>
-    <row r="18" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
       <c r="F18" s="25" t="s">
         <v>48</v>
@@ -1270,7 +1270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
       <c r="F19" s="25" t="s">
         <v>49</v>
@@ -1298,7 +1298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14"/>
       <c r="F20" s="25" t="s">
         <v>50</v>
@@ -1326,7 +1326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="F21" s="25" t="s">
         <v>51</v>
@@ -1348,7 +1348,7 @@
       <c r="M21" s="43"/>
       <c r="N21" s="44"/>
     </row>
-    <row r="22" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
       <c r="F22" s="22" t="s">
         <v>59</v>
@@ -1364,7 +1364,7 @@
       <c r="M22" s="41"/>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
       <c r="F23" s="25" t="s">
         <v>53</v>
@@ -1376,15 +1376,23 @@
       <c r="I23" s="47">
         <v>45088</v>
       </c>
-      <c r="J23" s="47"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="J23" s="47">
+        <v>45241</v>
+      </c>
+      <c r="K23" s="35">
+        <v>45241</v>
+      </c>
+      <c r="L23" s="35">
+        <v>45241</v>
+      </c>
       <c r="M23" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="44"/>
-    </row>
-    <row r="24" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="14"/>
       <c r="F24" s="25" t="s">
         <v>54</v>
@@ -1412,7 +1420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14"/>
       <c r="F25" s="25" t="s">
         <v>55</v>
@@ -1440,7 +1448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="14"/>
       <c r="F26" s="25" t="s">
         <v>56</v>
